--- a/sd-modif-prep-publication-0-4-0-draft/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
+++ b/sd-modif-prep-publication-0-4-0-draft/ig/ValueSet-code-region-territorial-division-ror-valueset.xlsx
@@ -34,7 +34,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-ballot-1</t>
+    <t>0.4.0-qa-preview-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T08:11:24+00:00</t>
+    <t>2024-05-16T08:29:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
